--- a/data_manual.xlsx
+++ b/data_manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimLe\PycharmProjects\JIP_ApronSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429E02E2-C373-4C0E-AFD4-1FC539A640A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5F7D90-B7AE-4B46-AA7C-0DD4B747FFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,19 +689,10 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="I5" s="3">
-        <v>550</v>
-      </c>
-      <c r="J5" s="3">
-        <v>450</v>
-      </c>
-      <c r="K5" s="3">
-        <f>960+(960-I5)</f>
-        <v>1370</v>
-      </c>
-      <c r="L5" s="3">
-        <v>450</v>
-      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
       <c r="M5" s="1">
         <v>0</v>
       </c>
@@ -822,7 +813,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="5">
@@ -840,12 +831,8 @@
         <f t="shared" si="2"/>
         <v>Chocks_Rear</v>
       </c>
-      <c r="I11" s="3">
-        <v>950</v>
-      </c>
-      <c r="J11" s="3">
-        <v>300</v>
-      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1">
@@ -1027,7 +1014,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="5">
@@ -1038,12 +1025,8 @@
         <v>Deboard</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="I20" s="3">
-        <v>1380</v>
-      </c>
-      <c r="J20" s="3">
-        <v>180</v>
-      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="M20" s="1">
         <v>0</v>

--- a/data_manual.xlsx
+++ b/data_manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimLe\PycharmProjects\JIP_ApronSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5F7D90-B7AE-4B46-AA7C-0DD4B747FFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAD1343-C20B-4B63-8E41-27C498E2D00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,13 +202,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -241,13 +234,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,10 +249,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,14 +536,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="5"/>
+    <col min="1" max="1" width="23" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
     <col min="3" max="5" width="21.85546875" customWidth="1"/>
     <col min="6" max="8" width="21.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
@@ -564,10 +554,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -608,16 +598,16 @@
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="1">
         <v>0</v>
       </c>
@@ -626,7 +616,7 @@
       <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="str">
@@ -635,14 +625,14 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>960</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>910</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
       <c r="M3" s="1">
         <v>0</v>
       </c>
@@ -651,7 +641,7 @@
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="str">
@@ -660,16 +650,16 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>880</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>550</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>1040</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>550</v>
       </c>
       <c r="M4" s="1">
@@ -680,7 +670,7 @@
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="str">
@@ -689,38 +679,38 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
       <c r="M5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>A3</f>
         <v>Chocks_Front</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
       <c r="M6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="str">
@@ -735,10 +725,10 @@
         <f>A$4</f>
         <v>Chocks_Rear</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="1">
         <v>0</v>
       </c>
@@ -747,7 +737,7 @@
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="str">
@@ -770,7 +760,7 @@
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="str">
@@ -790,10 +780,10 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>34</v>
       </c>
       <c r="C10" s="1" t="str">
@@ -816,7 +806,7 @@
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="str">
@@ -831,10 +821,10 @@
         <f t="shared" si="2"/>
         <v>Chocks_Rear</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="1">
         <v>0</v>
       </c>
@@ -843,7 +833,7 @@
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="str">
@@ -858,10 +848,10 @@
         <f t="shared" ref="E12" si="5">A$4</f>
         <v>Chocks_Rear</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="1">
         <v>0</v>
       </c>
@@ -870,7 +860,7 @@
       <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="str">
@@ -878,10 +868,10 @@
         <v>Chocks_Rear</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="1">
         <v>0</v>
       </c>
@@ -890,7 +880,7 @@
       <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="str">
@@ -899,14 +889,14 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>320</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="1">
         <v>0</v>
       </c>
@@ -915,7 +905,7 @@
       <c r="A15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="str">
@@ -924,14 +914,14 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>1052</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>902</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="1">
         <v>0</v>
       </c>
@@ -940,18 +930,18 @@
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>16</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>A9</f>
         <v>Connect_LDL_Front</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>900</v>
       </c>
-      <c r="J16" s="3">
-        <v>756</v>
+      <c r="J16" s="2">
+        <v>825</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -961,7 +951,7 @@
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="1" t="str">
@@ -969,13 +959,13 @@
         <v>Deboard</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>960</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>560</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="2"/>
       <c r="M17" s="1">
         <v>0</v>
       </c>
@@ -984,14 +974,14 @@
       <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>A15</f>
         <v>Deboard</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="1">
         <v>0</v>
       </c>
@@ -1000,15 +990,15 @@
       <c r="A19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>16</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>A15</f>
         <v>Deboard</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="1">
         <v>0</v>
       </c>
@@ -1017,7 +1007,7 @@
       <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="str">
@@ -1025,9 +1015,9 @@
         <v>Deboard</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
       <c r="M20" s="1">
         <v>0</v>
       </c>
@@ -1036,7 +1026,7 @@
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>6</v>
       </c>
       <c r="C21" s="1" t="str">
@@ -1051,21 +1041,21 @@
       <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>25</v>
       </c>
       <c r="C22" s="1" t="str">
         <f>A14</f>
         <v>Offload_Rear</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>320</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
       <c r="M22" s="1">
         <v>0</v>
       </c>
@@ -1074,7 +1064,7 @@
       <c r="A23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>3</v>
       </c>
       <c r="C23" s="1" t="str">
@@ -1086,13 +1076,13 @@
         <v>Catering_Rear</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>960</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>560</v>
       </c>
-      <c r="K23" s="3"/>
+      <c r="K23" s="2"/>
       <c r="M23" s="1">
         <v>0</v>
       </c>
@@ -1101,7 +1091,7 @@
       <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>25</v>
       </c>
       <c r="C24" s="1" t="str">
@@ -1109,13 +1099,13 @@
         <v>Offload_Front</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
-        <v>756</v>
-      </c>
-      <c r="L24" s="3"/>
+      <c r="J24" s="2">
+        <v>825</v>
+      </c>
+      <c r="L24" s="2"/>
       <c r="M24" s="1">
         <v>0</v>
       </c>
@@ -1124,14 +1114,14 @@
       <c r="A25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>14</v>
       </c>
       <c r="C25" s="1" t="str">
         <f>A21</f>
         <v>Refuel</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="2"/>
       <c r="M25" s="1">
         <v>0</v>
       </c>
@@ -1140,7 +1130,7 @@
       <c r="A26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>22</v>
       </c>
       <c r="C26" s="1" t="str">
@@ -1154,13 +1144,13 @@
       <c r="E26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>1052</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>902</v>
       </c>
-      <c r="K26" s="3"/>
+      <c r="K26" s="2"/>
       <c r="M26" s="1">
         <v>0</v>
       </c>
@@ -1169,21 +1159,21 @@
       <c r="A27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>3</v>
       </c>
       <c r="C27" s="1" t="str">
         <f>A26</f>
         <v>Boarding</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>960</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>560</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="1">
         <v>0</v>
       </c>
@@ -1192,7 +1182,7 @@
       <c r="A28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="str">
@@ -1215,14 +1205,10 @@
         <f>A20</f>
         <v>Toilet_Service</v>
       </c>
-      <c r="I28" s="3">
-        <v>960</v>
-      </c>
-      <c r="J28" s="3">
-        <v>910</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
       <c r="M28" s="1">
         <v>0</v>
       </c>
@@ -1231,31 +1217,31 @@
       <c r="A29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
       <c r="M29" s="1">
         <v>0</v>
       </c>
@@ -1264,7 +1250,7 @@
       <c r="A30" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>1</v>
       </c>
       <c r="C30" s="1" t="str">
@@ -1275,9 +1261,9 @@
         <v>45</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
       <c r="M30" s="1">
         <v>0</v>
       </c>
@@ -1286,7 +1272,7 @@
       <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>2</v>
       </c>
       <c r="C31" s="1" t="str">
@@ -1301,7 +1287,7 @@
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>2</v>
       </c>
       <c r="C32" s="1" t="str">
@@ -1316,7 +1302,7 @@
       <c r="A33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>1</v>
       </c>
       <c r="C33" s="1" t="str">
@@ -1325,19 +1311,10 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="I33" s="3">
-        <v>550</v>
-      </c>
-      <c r="J33" s="3">
-        <v>450</v>
-      </c>
-      <c r="K33" s="3">
-        <f>960+(960-I33)</f>
-        <v>1370</v>
-      </c>
-      <c r="L33" s="3">
-        <v>450</v>
-      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
       <c r="M33" s="1">
         <v>0</v>
       </c>
@@ -1346,7 +1323,7 @@
       <c r="A34" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>2</v>
       </c>
       <c r="C34" s="1" t="str">
@@ -1355,10 +1332,10 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
       <c r="M34" s="1">
         <v>0</v>
       </c>
@@ -1367,7 +1344,7 @@
       <c r="A35" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>2</v>
       </c>
       <c r="C35" s="1" t="str">
@@ -1390,13 +1367,13 @@
         <f>A27</f>
         <v>Flight_Closure</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <v>960</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <v>970</v>
       </c>
-      <c r="K35" s="3"/>
+      <c r="K35" s="2"/>
       <c r="M35" s="1">
         <v>0</v>
       </c>
@@ -1405,7 +1382,7 @@
       <c r="A36" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>5</v>
       </c>
       <c r="C36" s="1" t="str">

--- a/data_manual.xlsx
+++ b/data_manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimLe\PycharmProjects\JIP_ApronSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAD1343-C20B-4B63-8E41-27C498E2D00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01748025-D599-4AE6-AF5D-D7F57390A5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +975,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>A15</f>
@@ -991,7 +991,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>A15</f>

--- a/data_manual.xlsx
+++ b/data_manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimLe\PycharmProjects\JIP_ApronSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01748025-D599-4AE6-AF5D-D7F57390A5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E3DB90-3C99-40CF-9A6D-81D242A87CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3864" yWindow="-17388" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>Flight_Closure</t>
   </si>
   <si>
-    <t>PDCS</t>
-  </si>
-  <si>
     <t>Place_Cones</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>Dependency 6</t>
+  </si>
+  <si>
+    <t>PDC</t>
   </si>
 </sst>
 </file>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,28 +570,28 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="4">
         <v>2</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4">
         <v>9</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="4">
         <v>13</v>
@@ -889,12 +889,8 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="I14" s="2">
-        <v>900</v>
-      </c>
-      <c r="J14" s="2">
-        <v>320</v>
-      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="1">
@@ -928,7 +924,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4">
         <v>16</v>
@@ -937,12 +933,8 @@
         <f>A9</f>
         <v>Connect_LDL_Front</v>
       </c>
-      <c r="I16" s="2">
-        <v>900</v>
-      </c>
-      <c r="J16" s="2">
-        <v>825</v>
-      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
       <c r="M16" s="1">
         <v>0</v>
       </c>
@@ -972,7 +964,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4">
         <v>10</v>
@@ -988,7 +980,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4">
         <v>10</v>
@@ -1039,7 +1031,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="4">
         <v>25</v>
@@ -1048,12 +1040,8 @@
         <f>A14</f>
         <v>Offload_Rear</v>
       </c>
-      <c r="I22" s="2">
-        <v>900</v>
-      </c>
-      <c r="J22" s="2">
-        <v>320</v>
-      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="1">
@@ -1062,7 +1050,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="4">
         <v>3</v>
@@ -1089,7 +1077,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="4">
         <v>25</v>
@@ -1099,12 +1087,8 @@
         <v>Offload_Front</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="I24" s="2">
-        <v>900</v>
-      </c>
-      <c r="J24" s="2">
-        <v>825</v>
-      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="1">
         <v>0</v>
@@ -1112,7 +1096,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="4">
         <v>14</v>
@@ -1215,13 +1199,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="4">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>12</v>
@@ -1230,7 +1214,7 @@
         <v>13</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>14</v>
@@ -1248,7 +1232,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
@@ -1258,7 +1242,7 @@
         <v>Remove_GPU</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" s="1"/>
       <c r="I30" s="2"/>
@@ -1270,7 +1254,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="4">
         <v>2</v>
@@ -1285,7 +1269,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4">
         <v>2</v>
@@ -1300,7 +1284,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
@@ -1321,7 +1305,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="4">
         <v>2</v>
@@ -1342,7 +1326,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B35" s="4">
         <v>2</v>
@@ -1387,7 +1371,7 @@
       </c>
       <c r="C36" s="1" t="str">
         <f>A35</f>
-        <v>PDCS</v>
+        <v>PDC</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
